--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_4.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1306305.376742985</v>
+        <v>-1260688.158884089</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17440984.00909675</v>
+        <v>16794960.12241026</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484447</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10337491.66220413</v>
+        <v>10339343.0936395</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
-        <v>359.5581489687024</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>359.4099318409004</v>
       </c>
       <c r="Y2" t="n">
-        <v>231.3881464300085</v>
+        <v>15.76224215977618</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>82.30956969105502</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>217.4920945193992</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>332.4291174559668</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>11.9032393034097</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>91.02496189362678</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>183.0693744584394</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>430.4313829879808</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -1196,7 +1196,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>184.9203686683008</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>120.6512850821162</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -1351,13 +1351,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>176.9696690484021</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1385,10 +1385,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>138.2629396544432</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1540,13 +1540,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>43.48898701015855</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>231.3643080165131</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791316623</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633446</v>
       </c>
     </row>
     <row r="15">
@@ -1813,16 +1813,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>13.99728392830913</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>172.6623007436909</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1850,7 +1850,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1907,7 +1907,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864827</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>75.86622810093434</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2059,7 +2059,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2254,7 +2254,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2539,7 +2539,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>103.3456594571955</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
         <v>18.05677735225751</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C34" t="n">
         <v>154.6003840628599</v>
@@ -3196,16 +3196,16 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F34" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G34" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H34" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432362</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934044</v>
       </c>
       <c r="S34" t="n">
         <v>141.4132446762359</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>405.8008644413113</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>417.5253377496635</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>415.3149766385525</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>413.2012870545404</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>407.353044956137</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>381.1481427242214</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>270.0031426724685</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>201.6308445169444</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>240.3943693174059</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>342.7550702267644</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>384.5711897043296</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>398.715328447735</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>387.9675521245957</v>
       </c>
     </row>
     <row r="36">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C37" t="n">
         <v>154.6003840628599</v>
@@ -3433,16 +3433,16 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F37" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G37" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934044</v>
+        <v>4.967932742934455</v>
       </c>
       <c r="S37" t="n">
         <v>141.4132446762359</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C40" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D40" t="n">
-        <v>147.9835025317452</v>
+        <v>147.9835025317451</v>
       </c>
       <c r="E40" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F40" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G40" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934451</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C43" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D43" t="n">
-        <v>147.9835025317452</v>
+        <v>147.9835025317451</v>
       </c>
       <c r="E43" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F43" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G43" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934469</v>
+        <v>4.967932742934044</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C46" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D46" t="n">
-        <v>147.9835025317452</v>
+        <v>147.9835025317451</v>
       </c>
       <c r="E46" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F46" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G46" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432345</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934469</v>
+        <v>4.967932742934451</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>397.1337180649442</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="C2" t="n">
-        <v>397.1337180649442</v>
+        <v>462.52534286434</v>
       </c>
       <c r="D2" t="n">
-        <v>397.1337180649442</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E2" t="n">
         <v>33.94366860160834</v>
@@ -4331,25 +4331,25 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>1107.976466382457</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="P2" t="n">
-        <v>1528.02936532736</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
@@ -4358,22 +4358,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1072.260748364489</v>
+        <v>1696.368379531855</v>
       </c>
       <c r="X2" t="n">
-        <v>653.1182849437999</v>
+        <v>1333.328044339026</v>
       </c>
       <c r="Y2" t="n">
-        <v>419.3928845094479</v>
+        <v>1317.406587611979</v>
       </c>
     </row>
     <row r="3">
@@ -4404,25 +4404,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>778.554892512724</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M3" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.8216614000857</v>
+        <v>433.6938764353918</v>
       </c>
       <c r="C4" t="n">
-        <v>199.8216614000857</v>
+        <v>433.6938764353918</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>433.6938764353918</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>433.6938764353918</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>256.986822397148</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>256.986822397148</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>117.0846480875225</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>1181.483761245743</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>1181.483761245743</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U4" t="n">
-        <v>1231.614999295843</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="V4" t="n">
-        <v>944.6594911662735</v>
+        <v>1142.930654234675</v>
       </c>
       <c r="W4" t="n">
-        <v>672.633086752565</v>
+        <v>870.9042498209665</v>
       </c>
       <c r="X4" t="n">
-        <v>427.2413320859774</v>
+        <v>625.5124951543789</v>
       </c>
       <c r="Y4" t="n">
-        <v>199.8216614000857</v>
+        <v>625.5124951543789</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1250.721030006719</v>
+        <v>1264.727081153984</v>
       </c>
       <c r="C5" t="n">
-        <v>822.1393557439876</v>
+        <v>1230.625012377811</v>
       </c>
       <c r="D5" t="n">
-        <v>393.5576814812559</v>
+        <v>794.7152275522554</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>764.9808867509547</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>741.1538612005666</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>339.7560298238305</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704676</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704676</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>485.8805627199646</v>
       </c>
       <c r="K5" t="n">
-        <v>267.8706684926505</v>
+        <v>485.8805627199646</v>
       </c>
       <c r="L5" t="n">
-        <v>267.8706684926505</v>
+        <v>485.8805627199646</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>485.8805627199646</v>
       </c>
       <c r="N5" t="n">
-        <v>1107.976466382457</v>
+        <v>562.6504997812791</v>
       </c>
       <c r="O5" t="n">
-        <v>1107.976466382457</v>
+        <v>1189.145706210983</v>
       </c>
       <c r="P5" t="n">
-        <v>1528.02936532736</v>
+        <v>1815.640912640686</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2362.139698599281</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352338</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352338</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2519.27028930849</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2519.27028930849</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2519.27028930849</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2114.414834719523</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.225916111166</v>
+        <v>1695.272371298834</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.980196451223</v>
+        <v>1691.026651638892</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.7976202583395</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.3411590949818</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.2508702415351</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>261.1304555684888</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.7466171846504</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.36152745083429</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704676</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.68954842750435</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.2478733937166</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1027.74307982342</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="P6" t="n">
-        <v>1580.010651986078</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.692858651516</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.865636745856</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.410199194239</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.23155552484</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.895008524809</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.777490586808</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.454736320002</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.5873005588819</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>678.1015213381027</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>847.6348259499213</v>
+        <v>794.5287882915095</v>
       </c>
       <c r="C7" t="n">
-        <v>675.0731144331462</v>
+        <v>702.5843823383511</v>
       </c>
       <c r="D7" t="n">
-        <v>509.1951216346689</v>
+        <v>702.5843823383511</v>
       </c>
       <c r="E7" t="n">
-        <v>339.4371178854062</v>
+        <v>532.8263785890883</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>356.1193245508446</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>190.5280495766722</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704676</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704676</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>50.62587526704676</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>325.3843298381823</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>743.5942116061434</v>
       </c>
       <c r="M7" t="n">
-        <v>813.4916901053949</v>
+        <v>1203.078078787056</v>
       </c>
       <c r="N7" t="n">
-        <v>813.4916901053949</v>
+        <v>1645.336881944701</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2065.006131170482</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2412.513025140824</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352338</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2509.87594205771</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2350.634573355706</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2104.755126934162</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>1826.322126187267</v>
       </c>
       <c r="V7" t="n">
-        <v>1697.183430080417</v>
+        <v>1539.366618057697</v>
       </c>
       <c r="W7" t="n">
-        <v>1512.264870021388</v>
+        <v>1267.340213643989</v>
       </c>
       <c r="X7" t="n">
-        <v>1266.8731153548</v>
+        <v>1021.948458977401</v>
       </c>
       <c r="Y7" t="n">
-        <v>1039.453444668908</v>
+        <v>794.5287882915095</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>573.6111384008032</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1393.464329137293</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1134.24202645431</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>771.6250763881362</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W8" t="n">
-        <v>366.7696217991695</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X8" t="n">
-        <v>179.9813706190676</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y8" t="n">
-        <v>175.7356509591251</v>
+        <v>999.910708885711</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>726.6741060804052</v>
+        <v>790.1396618744722</v>
       </c>
       <c r="C10" t="n">
-        <v>726.6741060804052</v>
+        <v>790.1396618744722</v>
       </c>
       <c r="D10" t="n">
-        <v>726.6741060804052</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>509.954387939391</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>930.0072868842942</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1537.942061378414</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1292.062614956869</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1013.629614209975</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>726.6741060804052</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>726.6741060804052</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>726.6741060804052</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>726.6741060804052</v>
+        <v>981.9582805934592</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2216.105585700999</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>1777.963112884422</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1342.053328058867</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>908.2785832171617</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>480.4111536263694</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G11" t="n">
-        <v>79.01332224963326</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H11" t="n">
-        <v>79.01332224963326</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>79.01332224963326</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>182.9462320058501</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1017.296523964028</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1995.08638680324</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2972.876249642451</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N11" t="n">
-        <v>3950.666112481663</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>3950.666112481663</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>3950.666112481663</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3950.666112481663</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>3950.666112481663</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>3950.666112481663</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>3950.666112481663</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>3811.006577477175</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3448.389627411001</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>3043.534172822035</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2624.391709401345</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2216.105585700999</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>585.1850672409261</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>478.7286060775683</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>383.6383172241216</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>289.5179025510753</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>206.1340641672369</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>120.7489744334208</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>79.01332224963326</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>105.0769954100909</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>429.6353203763032</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1110.36884044668</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>1625.080305634102</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>1625.080305634102</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1625.080305634102</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1625.080305634102</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1625.080305634102</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1625.080305634102</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1742.253083728442</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1678.797646176825</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1548.619002507427</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1372.282455507395</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1173.164937569394</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>987.8421833025884</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>832.9747475414684</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>706.4889683206892</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>992.4802078873422</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C13" t="n">
-        <v>819.9184963705671</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D13" t="n">
-        <v>654.0405035720898</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E13" t="n">
-        <v>484.2824998228272</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F13" t="n">
-        <v>307.5754457845834</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G13" t="n">
-        <v>307.5754457845834</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H13" t="n">
-        <v>167.6732714749579</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>79.01332224963326</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>165.5930074143231</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>440.3514619854587</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>858.5613437534198</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1318.045210934333</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1760.304014091977</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2179.973263317759</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2527.480157288101</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2695.672932152433</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2695.672932152433</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2695.672932152433</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.793485730888</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U13" t="n">
-        <v>2216.092164502087</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V13" t="n">
-        <v>1929.136656372517</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W13" t="n">
-        <v>1657.110251958809</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X13" t="n">
-        <v>1411.718497292221</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y13" t="n">
-        <v>1184.298826606329</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="14">
@@ -5264,13 +5264,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5288,40 +5288,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5358,19 +5358,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
         <v>1107.588885023173</v>
@@ -5425,7 +5425,7 @@
         <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>330.8229638057297</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
         <v>190.9207894961043</v>
@@ -5455,19 +5455,19 @@
         <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173584</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2697.502628878956</v>
       </c>
       <c r="S16" t="n">
-        <v>2538.261260176947</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="T16" t="n">
-        <v>2292.381813755403</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U16" t="n">
-        <v>2117.975449367836</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V16" t="n">
         <v>2117.975449367836</v>
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
         <v>1221.073045167952</v>
@@ -5504,7 +5504,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5522,43 +5522,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5595,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5686,37 +5686,37 @@
         <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2642.287896536276</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2396.408450114731</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
         <v>1654.847790009657</v>
@@ -5738,13 +5738,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.20561557716</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004238</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436401</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5783,19 +5783,19 @@
         <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5935,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="23">
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6172,19 +6172,19 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
         <v>1371.99516675259</v>
@@ -6233,7 +6233,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6406,7 +6406,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
         <v>2700.681281130895</v>
@@ -6467,13 +6467,13 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2412.031452783383</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3569.079287993933</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>3569.079287993933</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
         <v>3569.079287993933</v>
@@ -6707,7 +6707,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6835,22 +6835,22 @@
         <v>1066.521048992528</v>
       </c>
       <c r="C34" t="n">
-        <v>910.3590448886287</v>
+        <v>910.3590448886291</v>
       </c>
       <c r="D34" t="n">
-        <v>760.8807595030275</v>
+        <v>760.8807595030279</v>
       </c>
       <c r="E34" t="n">
-        <v>607.5224631666409</v>
+        <v>607.5224631666413</v>
       </c>
       <c r="F34" t="n">
-        <v>447.2151165412733</v>
+        <v>447.2151165412737</v>
       </c>
       <c r="G34" t="n">
-        <v>298.0235489799771</v>
+        <v>298.0235489799775</v>
       </c>
       <c r="H34" t="n">
-        <v>174.5210820832277</v>
+        <v>174.5210820832282</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,7 +6880,7 @@
         <v>2847.507276056458</v>
       </c>
       <c r="R34" t="n">
-        <v>2842.489162174706</v>
+        <v>2842.489162174707</v>
       </c>
       <c r="S34" t="n">
         <v>2699.647500885579</v>
@@ -6889,7 +6889,7 @@
         <v>2470.16776187691</v>
       </c>
       <c r="U34" t="n">
-        <v>2208.134468542891</v>
+        <v>2208.134468542892</v>
       </c>
       <c r="V34" t="n">
         <v>1937.578667826198</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>755.2952747835857</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>370.2971508197257</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>97.56670367581808</v>
       </c>
       <c r="I35" t="n">
-        <v>102.2608402707796</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J35" t="n">
-        <v>533.9380463464488</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K35" t="n">
-        <v>1368.288338304627</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L35" t="n">
-        <v>2443.348304557486</v>
+        <v>2177.324623035295</v>
       </c>
       <c r="M35" t="n">
-        <v>2443.348304557486</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="N35" t="n">
-        <v>3569.079287993933</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.4325852620724</v>
+        <v>603.7384486671107</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987147</v>
+        <v>497.2819875037529</v>
       </c>
       <c r="D36" t="n">
-        <v>406.885835245268</v>
+        <v>402.1916986503062</v>
       </c>
       <c r="E36" t="n">
-        <v>312.7654205722217</v>
+        <v>308.0712839772599</v>
       </c>
       <c r="F36" t="n">
-        <v>229.3815821883833</v>
+        <v>224.6874455934215</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9964924545671</v>
+        <v>139.3023558596054</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2608402707796</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J36" t="n">
-        <v>452.8828383974496</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K36" t="n">
-        <v>452.8828383974496</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L36" t="n">
-        <v>452.8828383974496</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M36" t="n">
-        <v>452.8828383974496</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N36" t="n">
-        <v>452.8828383974496</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O36" t="n">
-        <v>452.8828383974496</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.327823655249</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.500601749588</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="S36" t="n">
-        <v>1702.045164197971</v>
+        <v>1697.35102760301</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.866520528573</v>
+        <v>1567.172383933611</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.529973528541</v>
+        <v>1390.83583693358</v>
       </c>
       <c r="V36" t="n">
-        <v>1196.412455590541</v>
+        <v>1191.718318995579</v>
       </c>
       <c r="W36" t="n">
-        <v>1011.089701323735</v>
+        <v>1006.395564728773</v>
       </c>
       <c r="X36" t="n">
-        <v>856.2222655626148</v>
+        <v>851.5281289676531</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.7364863418355</v>
+        <v>725.0423497468738</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1066.521048992528</v>
+        <v>1061.826912397567</v>
       </c>
       <c r="C37" t="n">
-        <v>910.3590448886291</v>
+        <v>905.6649082936676</v>
       </c>
       <c r="D37" t="n">
-        <v>760.880759503028</v>
+        <v>756.1866229080664</v>
       </c>
       <c r="E37" t="n">
-        <v>607.5224631666414</v>
+        <v>602.8283265716798</v>
       </c>
       <c r="F37" t="n">
-        <v>447.2151165412737</v>
+        <v>442.5209799463122</v>
       </c>
       <c r="G37" t="n">
-        <v>298.0235489799775</v>
+        <v>293.329412385016</v>
       </c>
       <c r="H37" t="n">
-        <v>174.5210820832282</v>
+        <v>169.8269454882666</v>
       </c>
       <c r="I37" t="n">
-        <v>102.2608402707796</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J37" t="n">
-        <v>204.9138786708294</v>
+        <v>200.2197420758676</v>
       </c>
       <c r="K37" t="n">
-        <v>495.7456864773249</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L37" t="n">
-        <v>930.0289214806457</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M37" t="n">
-        <v>1405.586141896919</v>
+        <v>1400.892005301957</v>
       </c>
       <c r="N37" t="n">
-        <v>1863.918298289923</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O37" t="n">
-        <v>2299.660900751064</v>
+        <v>2294.966764156103</v>
       </c>
       <c r="P37" t="n">
-        <v>2663.241147956766</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q37" t="n">
-        <v>2847.507276056458</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R37" t="n">
-        <v>2842.489162174707</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S37" t="n">
-        <v>2699.647500885579</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T37" t="n">
-        <v>2470.16776187691</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U37" t="n">
-        <v>2208.134468542892</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V37" t="n">
-        <v>1937.578667826198</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W37" t="n">
-        <v>1681.951970825366</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X37" t="n">
-        <v>1452.959923571655</v>
+        <v>1448.265786976693</v>
       </c>
       <c r="Y37" t="n">
-        <v>1241.939960298639</v>
+        <v>1237.245823703678</v>
       </c>
     </row>
     <row r="38">
@@ -7166,10 +7166,10 @@
         <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J38" t="n">
         <v>532.8213911287357</v>
@@ -7187,31 +7187,31 @@
         <v>2442.231649339773</v>
       </c>
       <c r="O38" t="n">
-        <v>3334.372458245846</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P38" t="n">
-        <v>4162.682333079242</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q38" t="n">
-        <v>4709.181119037837</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S38" t="n">
         <v>4811.083017387606</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V38" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X38" t="n">
         <v>3227.177156566212</v>
@@ -7245,10 +7245,10 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
         <v>448.1887018024878</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936676</v>
+        <v>905.6649082936672</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080663</v>
+        <v>756.1866229080661</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716797</v>
+        <v>602.8283265716794</v>
       </c>
       <c r="F40" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850157</v>
       </c>
       <c r="H40" t="n">
         <v>169.8269454882664</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
@@ -7348,25 +7348,25 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
         <v>2203.44033194793</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W40" t="n">
         <v>1677.257834230404</v>
@@ -7375,7 +7375,7 @@
         <v>1448.265786976693</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206709</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390329</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.7629969615</v>
       </c>
       <c r="F41" t="n">
         <v>755.2952747835852</v>
@@ -7403,10 +7403,10 @@
         <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J41" t="n">
         <v>532.8213911287357</v>
@@ -7433,28 +7433,28 @@
         <v>4797.21997670207</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T41" t="n">
         <v>4607.41549767352</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403412</v>
       </c>
       <c r="V41" t="n">
-        <v>4018.375659750116</v>
+        <v>4018.375659750115</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574024</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566211</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.29074027874</v>
       </c>
     </row>
     <row r="42">
@@ -7482,13 +7482,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I42" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K42" t="n">
         <v>1102.894748428211</v>
@@ -7546,25 +7546,25 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936672</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080661</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716794</v>
       </c>
       <c r="F43" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850157</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882663</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
@@ -7588,7 +7588,7 @@
         <v>2658.547011361804</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R43" t="n">
         <v>2837.795025579745</v>
@@ -7609,7 +7609,7 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y43" t="n">
         <v>1237.245823703677</v>
@@ -7634,46 +7634,46 @@
         <v>1166.7629969615</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835848</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J44" t="n">
         <v>532.8213911287357</v>
       </c>
       <c r="K44" t="n">
-        <v>1367.171683086914</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="L44" t="n">
-        <v>2442.231649339773</v>
+        <v>1607.881357381595</v>
       </c>
       <c r="M44" t="n">
-        <v>2442.231649339773</v>
+        <v>2764.929192592146</v>
       </c>
       <c r="N44" t="n">
-        <v>2442.231649339773</v>
+        <v>3890.660176028593</v>
       </c>
       <c r="O44" t="n">
-        <v>3422.411315910079</v>
+        <v>3890.660176028593</v>
       </c>
       <c r="P44" t="n">
-        <v>4250.721190743476</v>
+        <v>4162.68233307924</v>
       </c>
       <c r="Q44" t="n">
-        <v>4797.21997670207</v>
+        <v>4709.181119037835</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T44" t="n">
         <v>4607.41549767352</v>
@@ -7719,13 +7719,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I45" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K45" t="n">
         <v>1102.894748428211</v>
@@ -7783,52 +7783,52 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936667</v>
+        <v>905.6649082936672</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080656</v>
+        <v>756.1866229080661</v>
       </c>
       <c r="E46" t="n">
-        <v>602.828326571679</v>
+        <v>602.8283265716794</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5209799463113</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850151</v>
+        <v>293.3294123850157</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882658</v>
+        <v>169.8269454882663</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J46" t="n">
         <v>200.2197420758676</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823631</v>
+        <v>491.0515498823634</v>
       </c>
       <c r="L46" t="n">
-        <v>925.334784885684</v>
+        <v>925.3347848856844</v>
       </c>
       <c r="M46" t="n">
         <v>1400.892005301957</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694961</v>
+        <v>1859.224161694962</v>
       </c>
       <c r="O46" t="n">
         <v>2294.966764156103</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S46" t="n">
         <v>2694.953364290617</v>
@@ -7837,7 +7837,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.440331947929</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V46" t="n">
         <v>1932.884531231236</v>
@@ -7979,10 +7979,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,16 +7991,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>407.152590549595</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,28 +8052,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>385.2554146752024</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201044</v>
+        <v>77.54539097102474</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>632.8234408380845</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380845</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380845</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>28.49579817779818</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8380,19 +8380,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>119.9805436479937</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,19 +8608,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>58.38468441396117</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>104.9827371274918</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>987.6665281204157</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>987.6665281204157</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
-        <v>987.6665281204159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,10 +8769,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
-        <v>519.9105708963859</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9170,10 +9170,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10115,16 +10115,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1050.672356668189</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458549</v>
@@ -10355,10 +10355,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10583,19 +10583,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>436.0375818946154</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>818.3363029781626</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>901.152332228357</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>81.93455261497184</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11297,28 +11297,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458549</v>
+        <v>274.7698556067148</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>81.93455261497184</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -22547,22 +22547,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
-        <v>69.87884842458533</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>388.4410203035669</v>
       </c>
     </row>
     <row r="3">
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>-2.128370103836905e-13</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>118.36714000171</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>44.28436272291259</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23701,16 +23701,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>143.6516710866742</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>102.9863699957348</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>81.78272691404896</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,10 +24175,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>34.67467827192567</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>3.146865729424327</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>4.103384299014579e-13</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>4.067857162226574e-13</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>833713.859558744</v>
+        <v>685596.8689490525</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>903039.5176052275</v>
+        <v>909455.0898716239</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>903039.5176052275</v>
+        <v>910522.418839828</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>754645.353415943</v>
+        <v>909631.6333657613</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>909631.6333657615</v>
+        <v>909631.6333657616</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>909631.6333657615</v>
+        <v>909631.6333657616</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>909631.6333657615</v>
+        <v>909631.6333657613</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>924959.6973583042</v>
+        <v>923572.6511177747</v>
       </c>
     </row>
     <row r="14">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>49413.17695592064</v>
+        <v>40436.38964624237</v>
       </c>
       <c r="C2" t="n">
-        <v>53614.73198904083</v>
+        <v>53614.73198904085</v>
       </c>
       <c r="D2" t="n">
         <v>53614.73198904085</v>
       </c>
       <c r="E2" t="n">
-        <v>43708.97110405699</v>
+        <v>52685.75841373524</v>
       </c>
       <c r="F2" t="n">
-        <v>52685.75841373524</v>
+        <v>52685.75841373525</v>
       </c>
       <c r="G2" t="n">
         <v>52685.75841373525</v>
       </c>
       <c r="H2" t="n">
-        <v>52685.75841373523</v>
+        <v>52685.75841373525</v>
       </c>
       <c r="I2" t="n">
         <v>52685.75841373524</v>
@@ -26344,13 +26344,13 @@
         <v>53614.73198904088</v>
       </c>
       <c r="M2" t="n">
-        <v>53614.73198904088</v>
+        <v>53614.73198904082</v>
       </c>
       <c r="N2" t="n">
         <v>53614.73198904086</v>
       </c>
       <c r="O2" t="n">
-        <v>53614.73198904086</v>
+        <v>53614.73198904085</v>
       </c>
       <c r="P2" t="n">
         <v>53614.73198904085</v>
@@ -26366,16 +26366,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>67369.14939246203</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>10776.30320106441</v>
       </c>
       <c r="E3" t="n">
-        <v>168210.0880864998</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
-        <v>83262.72935658721</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53668.32706338193</v>
       </c>
       <c r="L3" t="n">
-        <v>12988.5682709979</v>
+        <v>21768.74196143537</v>
       </c>
       <c r="M3" t="n">
-        <v>140394.22459628</v>
+        <v>137577.700737852</v>
       </c>
       <c r="N3" t="n">
-        <v>56802.80065713888</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163583.4402648853</v>
+        <v>112346.893857459</v>
       </c>
       <c r="C4" t="n">
-        <v>187564.5330558133</v>
+        <v>146256.0480753018</v>
       </c>
       <c r="D4" t="n">
-        <v>187564.5330558133</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>34116.27680298296</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="F4" t="n">
         <v>41122.95192991272</v>
@@ -26442,22 +26442,22 @@
         <v>41122.95192991271</v>
       </c>
       <c r="K4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="L4" t="n">
         <v>46465.30974654599</v>
       </c>
       <c r="M4" t="n">
-        <v>46465.30974654598</v>
+        <v>55396.20108640302</v>
       </c>
       <c r="N4" t="n">
         <v>55396.20108640302</v>
       </c>
       <c r="O4" t="n">
-        <v>55396.20108640299</v>
+        <v>55396.20108640302</v>
       </c>
       <c r="P4" t="n">
-        <v>55396.20108640299</v>
+        <v>55396.20108640302</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26470,22 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>72103.26520295553</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60050.12490972127</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>79083.15853826067</v>
       </c>
       <c r="M5" t="n">
-        <v>79083.15853826067</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.6147260897</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-315786.3521058969</v>
+        <v>-273856.0515667188</v>
       </c>
       <c r="C6" t="n">
-        <v>-193374.5892039948</v>
+        <v>-232113.7306816785</v>
       </c>
       <c r="D6" t="n">
-        <v>-193374.5892039948</v>
+        <v>-170757.8430126858</v>
       </c>
       <c r="E6" t="n">
-        <v>-218667.5186951471</v>
+        <v>-248533.7656824024</v>
       </c>
       <c r="F6" t="n">
-        <v>-149418.1614785572</v>
+        <v>-66178.65646135263</v>
       </c>
       <c r="G6" t="n">
-        <v>-66155.43212196996</v>
+        <v>-66178.65646135263</v>
       </c>
       <c r="H6" t="n">
-        <v>-66155.43212196999</v>
+        <v>-66178.65646135263</v>
       </c>
       <c r="I6" t="n">
-        <v>-66155.43212196999</v>
+        <v>-66178.65646135263</v>
       </c>
       <c r="J6" t="n">
-        <v>-177169.8974669602</v>
+        <v>-177193.1218063428</v>
       </c>
       <c r="K6" t="n">
-        <v>-66155.43212196999</v>
+        <v>-119846.9835247346</v>
       </c>
       <c r="L6" t="n">
-        <v>-84922.30456676366</v>
+        <v>-93702.47825720116</v>
       </c>
       <c r="M6" t="n">
-        <v>-212327.9608920458</v>
+        <v>-214874.7845613039</v>
       </c>
       <c r="N6" t="n">
-        <v>-134099.8844805908</v>
+        <v>-77297.08382345186</v>
       </c>
       <c r="O6" t="n">
-        <v>-77297.08382345185</v>
+        <v>-77297.08382345186</v>
       </c>
       <c r="P6" t="n">
         <v>-77297.08382345186</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="3">
@@ -26790,13 +26790,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380845</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>987.6665281204157</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26820,7 +26820,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.260503384745</v>
+        <v>1219.583795947723</v>
       </c>
       <c r="N4" t="n">
         <v>1219.583795947723</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>208.5275833179802</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>34.69176576977242</v>
       </c>
       <c r="E4" t="n">
-        <v>563.3706706003114</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
-        <v>290.5939752643293</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179802</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977242</v>
       </c>
       <c r="M4" t="n">
-        <v>563.3706706003114</v>
+        <v>552.0685893398661</v>
       </c>
       <c r="N4" t="n">
-        <v>231.9172678273072</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179802</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977242</v>
       </c>
       <c r="M4" t="n">
-        <v>563.3706706003114</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
-        <v>290.5939752643293</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -27439,13 +27439,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>55.54110694558199</v>
       </c>
       <c r="Y2" t="n">
-        <v>172.8151160333346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>5.463780042016396</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -27591,7 +27591,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>58.15657622002655</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>9.465190568306582</v>
-      </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>97.00787993732098</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27667,7 +27667,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>205.9633155522821</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -27676,7 +27676,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>79.81113250798053</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>86.23676591113201</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>3.329665100430077</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>230.0306701181816</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>47.40913862965392</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>48.17580493063073</v>
       </c>
     </row>
     <row r="11">
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-7.895555166631037e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28527,7 +28527,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>4.901797486430345e-12</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-5.053384223590637e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28758,7 +28758,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>3.959144123655279e-12</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874771</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
   </sheetData>
@@ -34699,10 +34699,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,16 +34711,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>407.152590549595</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,28 +34772,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>385.2554146752024</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201044</v>
+        <v>77.54539097102474</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>632.8234408380845</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380845</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,16 +35009,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380845</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>28.49579817779818</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,19 +35100,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>119.9805436479937</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>58.38468441396117</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>104.9827371274918</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>987.6665281204157</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>987.6665281204157</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
-        <v>987.6665281204159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,10 +35489,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
-        <v>519.9105708963859</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35507,7 +35507,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35574,7 +35574,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35656,7 +35656,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35823,7 +35823,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821589</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,10 +35890,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512984</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36601,10 +36601,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36835,16 +36835,16 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>1050.672356668189</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458546</v>
@@ -37075,10 +37075,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778281</v>
       </c>
       <c r="K34" t="n">
         <v>293.7695028348439</v>
       </c>
       <c r="L34" t="n">
-        <v>438.6699343467889</v>
+        <v>438.6699343467888</v>
       </c>
       <c r="M34" t="n">
         <v>480.360828703306</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>436.0375818946154</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>818.3363029781626</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37470,19 +37470,19 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M37" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N37" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37555,16 +37555,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>901.152332228357</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37713,13 +37713,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>81.93455261497184</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>367.2527749552542</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38017,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458551</v>
+        <v>274.7698556067148</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>81.93455261497184</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>103.689937777828</v>
       </c>
       <c r="K46" t="n">
-        <v>293.7695028348439</v>
+        <v>293.7695028348443</v>
       </c>
       <c r="L46" t="n">
         <v>438.6699343467889</v>
       </c>
       <c r="M46" t="n">
-        <v>480.3608287033061</v>
+        <v>480.360828703306</v>
       </c>
       <c r="N46" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P46" t="n">
         <v>367.2527749552542</v>
